--- a/src/Tests/Templates/Contracts.xlsx
+++ b/src/Tests/Templates/Contracts.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="52">
   <si>
     <t>Содержание</t>
   </si>
@@ -176,13 +176,16 @@
   </si>
   <si>
     <t>123. Тест</t>
+  </si>
+  <si>
+    <t>б/н</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -212,6 +215,15 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="2"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="7">
@@ -251,7 +263,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -317,12 +329,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -402,10 +429,6 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
@@ -457,6 +480,8 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -808,8 +833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="T5" sqref="T5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -854,16 +879,16 @@
       <c r="E1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="34" t="s">
+      <c r="H1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="35" t="s">
+      <c r="I1" s="34" t="s">
         <v>11</v>
       </c>
       <c r="J1" s="4" t="s">
@@ -890,25 +915,25 @@
       <c r="Q1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="R1" s="34" t="s">
+      <c r="R1" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="S1" s="34" t="s">
+      <c r="S1" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="T1" s="40" t="s">
+      <c r="T1" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="U1" s="40" t="s">
+      <c r="U1" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="V1" s="28" t="s">
+      <c r="V1" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="W1" s="28" t="s">
+      <c r="W1" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="X1" s="28" t="s">
+      <c r="X1" s="27" t="s">
         <v>41</v>
       </c>
       <c r="Y1"/>
@@ -916,7 +941,7 @@
       <c r="AA1"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="31" t="s">
         <v>47</v>
       </c>
       <c r="B2" s="7">
@@ -931,16 +956,16 @@
       <c r="E2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="36" t="s">
+      <c r="F2" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="36" t="s">
+      <c r="G2" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="H2" s="36" t="s">
+      <c r="H2" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="37" t="s">
+      <c r="I2" s="36" t="s">
         <v>45</v>
       </c>
       <c r="J2" s="11">
@@ -963,22 +988,22 @@
       <c r="Q2" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="R2" s="36">
+      <c r="R2" s="35">
         <v>3</v>
       </c>
-      <c r="S2" s="38" t="s">
+      <c r="S2" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="T2" s="38" t="s">
+      <c r="T2" s="37" t="s">
         <v>50</v>
       </c>
       <c r="U2" s="11">
         <v>40410</v>
       </c>
-      <c r="V2" s="38" t="s">
+      <c r="V2" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="W2" s="39" t="s">
+      <c r="W2" s="38" t="s">
         <v>46</v>
       </c>
       <c r="X2" t="s">
@@ -989,82 +1014,196 @@
       <c r="AA2"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A3" s="32"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="10"/>
+      <c r="A3" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="41">
+        <v>43326</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="J3" s="11">
+        <v>40410</v>
+      </c>
+      <c r="K3" s="11">
+        <v>42235</v>
+      </c>
+      <c r="L3" s="12">
+        <v>10000</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>38</v>
+      </c>
       <c r="O3" s="10"/>
       <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="29"/>
-      <c r="W3" s="29"/>
-      <c r="X3" s="31"/>
+      <c r="Q3" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="R3" s="35">
+        <v>4</v>
+      </c>
+      <c r="S3" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="T3" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="U3" s="11">
+        <v>40410</v>
+      </c>
+      <c r="V3" s="28"/>
+      <c r="W3" s="28"/>
+      <c r="X3" s="30"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A4" s="32"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="10"/>
+      <c r="A4" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="41">
+        <v>43326</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="J4" s="11">
+        <v>40410</v>
+      </c>
+      <c r="K4" s="11">
+        <v>42235</v>
+      </c>
+      <c r="L4" s="12">
+        <v>10000</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>38</v>
+      </c>
       <c r="O4" s="10"/>
       <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
-      <c r="U4" s="10"/>
-      <c r="V4" s="29"/>
-      <c r="W4" s="29"/>
-      <c r="X4" s="31"/>
+      <c r="Q4" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="R4" s="35">
+        <v>5</v>
+      </c>
+      <c r="S4" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="T4" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="U4" s="11">
+        <v>40410</v>
+      </c>
+      <c r="V4" s="28"/>
+      <c r="W4" s="28"/>
+      <c r="X4" s="30"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="24"/>
+      <c r="A5" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="41">
+        <v>43326</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" s="11">
+        <v>40410</v>
+      </c>
+      <c r="K5" s="11">
+        <v>42235</v>
+      </c>
+      <c r="L5" s="12">
+        <v>10000</v>
+      </c>
+      <c r="M5" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="N5" s="10" t="s">
+        <v>38</v>
+      </c>
       <c r="O5" s="10"/>
       <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10"/>
-      <c r="V5" s="29"/>
-      <c r="W5" s="29"/>
-      <c r="X5" s="30"/>
+      <c r="Q5" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="R5" s="35">
+        <v>6</v>
+      </c>
+      <c r="S5" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="T5" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="U5" s="11">
+        <v>40410</v>
+      </c>
+      <c r="V5" s="28"/>
+      <c r="W5" s="28"/>
+      <c r="X5" s="29"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
@@ -1075,7 +1214,7 @@
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
-      <c r="I6" s="33"/>
+      <c r="I6" s="32"/>
       <c r="J6" s="11"/>
       <c r="K6" s="11"/>
       <c r="L6" s="12"/>
@@ -1088,9 +1227,9 @@
       <c r="S6" s="10"/>
       <c r="T6" s="10"/>
       <c r="U6" s="10"/>
-      <c r="V6" s="29"/>
-      <c r="W6" s="29"/>
-      <c r="X6" s="30"/>
+      <c r="V6" s="28"/>
+      <c r="W6" s="28"/>
+      <c r="X6" s="29"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
@@ -1101,7 +1240,7 @@
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
-      <c r="I7" s="33"/>
+      <c r="I7" s="32"/>
       <c r="J7" s="11"/>
       <c r="K7" s="11"/>
       <c r="L7" s="12"/>
@@ -1114,9 +1253,9 @@
       <c r="S7" s="10"/>
       <c r="T7" s="10"/>
       <c r="U7" s="10"/>
-      <c r="V7" s="29"/>
-      <c r="W7" s="29"/>
-      <c r="X7" s="30"/>
+      <c r="V7" s="28"/>
+      <c r="W7" s="28"/>
+      <c r="X7" s="29"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
@@ -1127,7 +1266,7 @@
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
-      <c r="I8" s="33"/>
+      <c r="I8" s="32"/>
       <c r="J8" s="11"/>
       <c r="K8" s="11"/>
       <c r="L8" s="12"/>
@@ -1140,9 +1279,9 @@
       <c r="S8" s="10"/>
       <c r="T8" s="10"/>
       <c r="U8" s="10"/>
-      <c r="V8" s="29"/>
-      <c r="W8" s="29"/>
-      <c r="X8" s="30"/>
+      <c r="V8" s="28"/>
+      <c r="W8" s="28"/>
+      <c r="X8" s="29"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
@@ -1153,7 +1292,7 @@
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
-      <c r="I9" s="33"/>
+      <c r="I9" s="32"/>
       <c r="J9" s="11"/>
       <c r="K9" s="11"/>
       <c r="L9" s="12"/>
@@ -1166,9 +1305,9 @@
       <c r="S9" s="10"/>
       <c r="T9" s="10"/>
       <c r="U9" s="10"/>
-      <c r="V9" s="29"/>
-      <c r="W9" s="29"/>
-      <c r="X9" s="30"/>
+      <c r="V9" s="28"/>
+      <c r="W9" s="28"/>
+      <c r="X9" s="29"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
@@ -1179,7 +1318,7 @@
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
-      <c r="I10" s="33"/>
+      <c r="I10" s="32"/>
       <c r="J10" s="11"/>
       <c r="K10" s="11"/>
       <c r="L10" s="12"/>
@@ -1192,9 +1331,9 @@
       <c r="S10" s="10"/>
       <c r="T10" s="10"/>
       <c r="U10" s="10"/>
-      <c r="V10" s="29"/>
-      <c r="W10" s="29"/>
-      <c r="X10" s="30"/>
+      <c r="V10" s="28"/>
+      <c r="W10" s="28"/>
+      <c r="X10" s="29"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
@@ -1205,7 +1344,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
-      <c r="I11" s="33"/>
+      <c r="I11" s="32"/>
       <c r="J11" s="11"/>
       <c r="K11" s="11"/>
       <c r="L11" s="12"/>
@@ -1218,9 +1357,9 @@
       <c r="S11" s="10"/>
       <c r="T11" s="10"/>
       <c r="U11" s="10"/>
-      <c r="V11" s="29"/>
-      <c r="W11" s="29"/>
-      <c r="X11" s="30"/>
+      <c r="V11" s="28"/>
+      <c r="W11" s="28"/>
+      <c r="X11" s="29"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
@@ -1231,7 +1370,7 @@
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
-      <c r="I12" s="33"/>
+      <c r="I12" s="32"/>
       <c r="J12" s="11"/>
       <c r="K12" s="11"/>
       <c r="L12" s="12"/>
@@ -1244,9 +1383,9 @@
       <c r="S12" s="10"/>
       <c r="T12" s="10"/>
       <c r="U12" s="10"/>
-      <c r="V12" s="29"/>
-      <c r="W12" s="29"/>
-      <c r="X12" s="30"/>
+      <c r="V12" s="28"/>
+      <c r="W12" s="28"/>
+      <c r="X12" s="29"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
@@ -1257,7 +1396,7 @@
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
-      <c r="I13" s="33"/>
+      <c r="I13" s="32"/>
       <c r="J13" s="11"/>
       <c r="K13" s="11"/>
       <c r="L13" s="12"/>
@@ -1270,9 +1409,9 @@
       <c r="S13" s="10"/>
       <c r="T13" s="10"/>
       <c r="U13" s="10"/>
-      <c r="V13" s="29"/>
-      <c r="W13" s="29"/>
-      <c r="X13" s="30"/>
+      <c r="V13" s="28"/>
+      <c r="W13" s="28"/>
+      <c r="X13" s="29"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
@@ -1283,7 +1422,7 @@
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
-      <c r="I14" s="33"/>
+      <c r="I14" s="32"/>
       <c r="J14" s="11"/>
       <c r="K14" s="11"/>
       <c r="L14" s="12"/>
@@ -1296,9 +1435,9 @@
       <c r="S14" s="10"/>
       <c r="T14" s="10"/>
       <c r="U14" s="10"/>
-      <c r="V14" s="29"/>
-      <c r="W14" s="29"/>
-      <c r="X14" s="30"/>
+      <c r="V14" s="28"/>
+      <c r="W14" s="28"/>
+      <c r="X14" s="29"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
@@ -1309,11 +1448,11 @@
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
-      <c r="I15" s="33"/>
+      <c r="I15" s="32"/>
       <c r="J15" s="11"/>
       <c r="K15" s="11"/>
       <c r="L15" s="14"/>
-      <c r="M15" s="25"/>
+      <c r="M15" s="24"/>
       <c r="N15" s="10"/>
       <c r="O15" s="10"/>
       <c r="P15" s="10"/>
@@ -1322,9 +1461,9 @@
       <c r="S15" s="10"/>
       <c r="T15" s="10"/>
       <c r="U15" s="10"/>
-      <c r="V15" s="29"/>
-      <c r="W15" s="29"/>
-      <c r="X15" s="30"/>
+      <c r="V15" s="28"/>
+      <c r="W15" s="28"/>
+      <c r="X15" s="29"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>
@@ -1335,7 +1474,7 @@
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
-      <c r="I16" s="33"/>
+      <c r="I16" s="32"/>
       <c r="J16" s="11"/>
       <c r="K16" s="11"/>
       <c r="L16" s="12"/>
@@ -1348,9 +1487,9 @@
       <c r="S16" s="10"/>
       <c r="T16" s="10"/>
       <c r="U16" s="10"/>
-      <c r="V16" s="29"/>
-      <c r="W16" s="29"/>
-      <c r="X16" s="30"/>
+      <c r="V16" s="28"/>
+      <c r="W16" s="28"/>
+      <c r="X16" s="29"/>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
@@ -1361,7 +1500,7 @@
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
-      <c r="I17" s="33"/>
+      <c r="I17" s="32"/>
       <c r="J17" s="11"/>
       <c r="K17" s="11"/>
       <c r="L17" s="12"/>
@@ -1374,9 +1513,9 @@
       <c r="S17" s="10"/>
       <c r="T17" s="10"/>
       <c r="U17" s="10"/>
-      <c r="V17" s="29"/>
-      <c r="W17" s="29"/>
-      <c r="X17" s="30"/>
+      <c r="V17" s="28"/>
+      <c r="W17" s="28"/>
+      <c r="X17" s="29"/>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18" s="6"/>
@@ -1387,7 +1526,7 @@
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
-      <c r="I18" s="33"/>
+      <c r="I18" s="32"/>
       <c r="J18" s="11"/>
       <c r="K18" s="11"/>
       <c r="L18" s="12"/>
@@ -1400,9 +1539,9 @@
       <c r="S18" s="10"/>
       <c r="T18" s="10"/>
       <c r="U18" s="10"/>
-      <c r="V18" s="29"/>
-      <c r="W18" s="29"/>
-      <c r="X18" s="30"/>
+      <c r="V18" s="28"/>
+      <c r="W18" s="28"/>
+      <c r="X18" s="29"/>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A19" s="6"/>
@@ -1413,7 +1552,7 @@
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
-      <c r="I19" s="33"/>
+      <c r="I19" s="32"/>
       <c r="J19" s="11"/>
       <c r="K19" s="11"/>
       <c r="L19" s="12"/>
@@ -1426,9 +1565,9 @@
       <c r="S19" s="10"/>
       <c r="T19" s="10"/>
       <c r="U19" s="10"/>
-      <c r="V19" s="29"/>
-      <c r="W19" s="29"/>
-      <c r="X19" s="30"/>
+      <c r="V19" s="28"/>
+      <c r="W19" s="28"/>
+      <c r="X19" s="29"/>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20" s="6"/>
@@ -1439,7 +1578,7 @@
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
-      <c r="I20" s="33"/>
+      <c r="I20" s="32"/>
       <c r="J20" s="11"/>
       <c r="K20" s="11"/>
       <c r="L20" s="12"/>
@@ -1452,9 +1591,9 @@
       <c r="S20" s="10"/>
       <c r="T20" s="10"/>
       <c r="U20" s="10"/>
-      <c r="V20" s="29"/>
-      <c r="W20" s="29"/>
-      <c r="X20" s="30"/>
+      <c r="V20" s="28"/>
+      <c r="W20" s="28"/>
+      <c r="X20" s="29"/>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21" s="6"/>
@@ -1465,7 +1604,7 @@
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
-      <c r="I21" s="33"/>
+      <c r="I21" s="32"/>
       <c r="J21" s="11"/>
       <c r="K21" s="11"/>
       <c r="L21" s="12"/>
@@ -1475,9 +1614,9 @@
       <c r="P21" s="10"/>
       <c r="Q21" s="10"/>
       <c r="R21" s="10"/>
-      <c r="V21" s="29"/>
-      <c r="W21" s="29"/>
-      <c r="X21" s="30"/>
+      <c r="V21" s="28"/>
+      <c r="W21" s="28"/>
+      <c r="X21" s="29"/>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22" s="15"/>
@@ -1517,14 +1656,14 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="27">
+    <row r="2" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="26">
         <v>2</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="26" t="s">
         <v>26</v>
       </c>
     </row>
